--- a/CustomerData/netlist_ForTestingLoad.xlsx
+++ b/CustomerData/netlist_ForTestingLoad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627806D-A2D4-4550-B715-1510BD332EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC66C03-F717-418B-91A6-8D1D4CDAFFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data Form:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The bus 1 HAVE TO be the slack bus, i.e., type-1 bus.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Discretization Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,18 +303,6 @@
   </si>
   <si>
     <t>100, Floating Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG and QG are generated source power; PL and QL are the absorbed load power.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When PL and QL are set to non-zero, which means the bus has passive load and HAS TO be a PQ bus.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loads with known R or L can also be set in "NetworkLine".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,211 +661,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>43</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>69</v>
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>70</v>
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
         <v>-1</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
@@ -908,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -918,27 +868,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1156,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1171,18 +1121,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1206,7 +1156,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1239,40 +1189,40 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1281,23 +1231,23 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1392,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1402,17 +1352,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1422,22 +1372,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
